--- a/templates/CoLDP_parent-child_schema.xlsx
+++ b/templates/CoLDP_parent-child_schema.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markus/code/col+/coldp/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B898B6B1-BF82-ED42-BE90-1636405D566D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F096B736-F2EB-924C-A1ED-64794C700F1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5420" yWindow="460" windowWidth="29900" windowHeight="11680" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
   <si>
     <t>taxonID</t>
   </si>
@@ -171,6 +171,21 @@
   </si>
   <si>
     <t>extinct</t>
+  </si>
+  <si>
+    <t>original</t>
+  </si>
+  <si>
+    <t>typeMaterial</t>
+  </si>
+  <si>
+    <t>typeLocality</t>
+  </si>
+  <si>
+    <t>cultivarEpithet</t>
+  </si>
+  <si>
+    <t>appendedPhrase</t>
   </si>
 </sst>
 </file>
@@ -602,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -614,7 +629,7 @@
     <col min="6" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -622,12 +637,15 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -684,19 +702,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="H1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="H1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="13" width="20.5" customWidth="1"/>
-    <col min="14" max="1025" width="11.5"/>
+    <col min="1" max="18" width="20.5" customWidth="1"/>
+    <col min="19" max="1030" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -719,21 +737,36 @@
         <v>14</v>
       </c>
       <c r="H1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" t="s">
+      <c r="R1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -841,19 +874,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView topLeftCell="B1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="8" width="35" customWidth="1"/>
-    <col min="9" max="1025" width="11.5"/>
+    <col min="9" max="9" width="25.33203125" customWidth="1"/>
+    <col min="10" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -877,6 +911,9 @@
       </c>
       <c r="H1" t="s">
         <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -891,19 +928,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="4" width="30.6640625" customWidth="1"/>
-    <col min="5" max="1025" width="11.5"/>
+    <col min="1" max="5" width="30.6640625" customWidth="1"/>
+    <col min="6" max="1026" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -914,6 +951,9 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -931,7 +971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>

--- a/templates/CoLDP_parent-child_schema.xlsx
+++ b/templates/CoLDP_parent-child_schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markus/code/col+/coldp/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F096B736-F2EB-924C-A1ED-64794C700F1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBEBBC8-1EF6-624D-A9B7-A653E9EFF0C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5420" yWindow="460" windowWidth="29900" windowHeight="11680" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5420" yWindow="460" windowWidth="29900" windowHeight="11680" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
   <si>
     <t>taxonID</t>
   </si>
@@ -179,13 +179,16 @@
     <t>typeMaterial</t>
   </si>
   <si>
-    <t>typeLocality</t>
-  </si>
-  <si>
     <t>cultivarEpithet</t>
   </si>
   <si>
     <t>appendedPhrase</t>
+  </si>
+  <si>
+    <t>typeStatus</t>
+  </si>
+  <si>
+    <t>typeReferenceID</t>
   </si>
 </sst>
 </file>
@@ -619,7 +622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -702,19 +705,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:S1"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H1" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="I1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="18" width="20.5" customWidth="1"/>
-    <col min="19" max="1030" width="11.5"/>
+    <col min="1" max="19" width="20.5" customWidth="1"/>
+    <col min="20" max="1031" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -737,10 +740,10 @@
         <v>14</v>
       </c>
       <c r="H1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" t="s">
         <v>49</v>
-      </c>
-      <c r="I1" t="s">
-        <v>50</v>
       </c>
       <c r="J1" t="s">
         <v>15</v>
@@ -758,15 +761,18 @@
         <v>7</v>
       </c>
       <c r="O1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" t="s">
         <v>47</v>
       </c>
-      <c r="P1" t="s">
-        <v>48</v>
-      </c>
       <c r="Q1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" t="s">
         <v>18</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>19</v>
       </c>
     </row>

--- a/templates/CoLDP_parent-child_schema.xlsx
+++ b/templates/CoLDP_parent-child_schema.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
   <si>
     <t xml:space="preserve">taxonID</t>
   </si>
@@ -36,6 +36,9 @@
     <t xml:space="preserve">category</t>
   </si>
   <si>
+    <t xml:space="preserve">format</t>
+  </si>
+  <si>
     <t xml:space="preserve">description</t>
   </si>
   <si>
@@ -69,21 +72,45 @@
     <t xml:space="preserve">genus</t>
   </si>
   <si>
+    <t xml:space="preserve">infragenericEpithet</t>
+  </si>
+  <si>
     <t xml:space="preserve">specificEpithet</t>
   </si>
   <si>
     <t xml:space="preserve">infraspecificEpithet</t>
   </si>
   <si>
+    <t xml:space="preserve">cultivarEpithet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">appendedPhrase</t>
+  </si>
+  <si>
     <t xml:space="preserve">publishedInID</t>
   </si>
   <si>
     <t xml:space="preserve">publishedInPage</t>
   </si>
   <si>
+    <t xml:space="preserve">publishedInYear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">original</t>
+  </si>
+  <si>
     <t xml:space="preserve">code</t>
   </si>
   <si>
+    <t xml:space="preserve">typeStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">typeMaterial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">typeReferenceID</t>
+  </si>
+  <si>
     <t xml:space="preserve">link</t>
   </si>
   <si>
@@ -102,9 +129,6 @@
     <t xml:space="preserve">url</t>
   </si>
   <si>
-    <t xml:space="preserve">format</t>
-  </si>
-  <si>
     <t xml:space="preserve">title</t>
   </si>
   <si>
@@ -129,6 +153,9 @@
     <t xml:space="preserve">source</t>
   </si>
   <si>
+    <t xml:space="preserve">details</t>
+  </si>
+  <si>
     <t xml:space="preserve">doi</t>
   </si>
   <si>
@@ -147,10 +174,13 @@
     <t xml:space="preserve">accordingToDate</t>
   </si>
   <si>
-    <t xml:space="preserve">fossil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recent</t>
+    <t xml:space="preserve">extinct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">temporalRangeStart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">temporalRangeEnd</t>
   </si>
   <si>
     <t xml:space="preserve">lifezone</t>
@@ -165,7 +195,7 @@
     <t xml:space="preserve">country</t>
   </si>
   <si>
-    <t xml:space="preserve">lifeState</t>
+    <t xml:space="preserve">lifeStage</t>
   </si>
   <si>
     <t xml:space="preserve">sex</t>
@@ -178,11 +208,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -199,112 +230,16 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -312,23 +247,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -352,23 +272,6 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -376,91 +279,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000EE"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -469,16 +295,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="51.93"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="51.93"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -496,6 +322,9 @@
       </c>
       <c r="E1" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -516,7 +345,7 @@
   </sheetPr>
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -531,22 +360,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -559,63 +388,87 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U1" activeCellId="0" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="1" style="0" width="20.49"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="1" style="0" width="20.49"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="22" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>19</v>
+      <c r="Q1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -630,8 +483,8 @@
   </sheetPr>
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -642,25 +495,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -675,7 +528,7 @@
   </sheetPr>
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -690,34 +543,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G1" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -730,48 +583,54 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="0" width="34.99"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="1" style="0" width="34.99"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>18</v>
+        <v>42</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -784,16 +643,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="30.65"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="30.65"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -801,19 +660,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>19</v>
+        <v>5</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -826,63 +688,66 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N29" activeCellId="0" sqref="N29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="1" style="0" width="25.09"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="1" style="0" width="25.09"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>19</v>
+        <v>27</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -895,16 +760,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="0" width="37.08"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="1" style="0" width="37.08"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -912,31 +777,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>4</v>
+        <v>56</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/templates/CoLDP_parent-child_schema.xlsx
+++ b/templates/CoLDP_parent-child_schema.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markus/code/col/coldp/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9BC112-8A3D-DB4E-8801-0F9B266AC545}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99225CA2-2176-2C41-ABDB-25C0FCF7F9F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8360" yWindow="9180" windowWidth="23580" windowHeight="10000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="2240" windowWidth="29140" windowHeight="16280" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="10" r:id="rId1"/>
-    <sheet name="Description" sheetId="1" r:id="rId2"/>
-    <sheet name="Distribution" sheetId="2" r:id="rId3"/>
-    <sheet name="Name" sheetId="3" r:id="rId4"/>
-    <sheet name="NameRel" sheetId="4" r:id="rId5"/>
-    <sheet name="Media" sheetId="5" r:id="rId6"/>
-    <sheet name="Reference" sheetId="6" r:id="rId7"/>
-    <sheet name="Synonym" sheetId="7" r:id="rId8"/>
-    <sheet name="Taxon" sheetId="8" r:id="rId9"/>
-    <sheet name="VernacularName" sheetId="9" r:id="rId10"/>
+    <sheet name="Name" sheetId="3" r:id="rId2"/>
+    <sheet name="NameRelation" sheetId="4" r:id="rId3"/>
+    <sheet name="TypeMaterial" sheetId="12" r:id="rId4"/>
+    <sheet name="Taxon" sheetId="8" r:id="rId5"/>
+    <sheet name="Synonym" sheetId="7" r:id="rId6"/>
+    <sheet name="Distribution" sheetId="2" r:id="rId7"/>
+    <sheet name="Media" sheetId="5" r:id="rId8"/>
+    <sheet name="VernacularName" sheetId="9" r:id="rId9"/>
+    <sheet name="Reference" sheetId="6" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -34,14 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="74">
   <si>
     <t>taxonID</t>
   </si>
   <si>
-    <t>category</t>
-  </si>
-  <si>
     <t>format</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
     <t>cultivarEpithet</t>
   </si>
   <si>
-    <t>appendedPhrase</t>
-  </si>
-  <si>
     <t>publishedInID</t>
   </si>
   <si>
@@ -102,21 +96,9 @@
     <t>publishedInYear</t>
   </si>
   <si>
-    <t>original</t>
-  </si>
-  <si>
     <t>code</t>
   </si>
   <si>
-    <t>typeStatus</t>
-  </si>
-  <si>
-    <t>typeMaterial</t>
-  </si>
-  <si>
-    <t>typeReferenceID</t>
-  </si>
-  <si>
     <t>link</t>
   </si>
   <si>
@@ -171,15 +153,9 @@
     <t>provisional</t>
   </si>
   <si>
-    <t>accordingTo</t>
-  </si>
-  <si>
     <t>accordingToID</t>
   </si>
   <si>
-    <t>accordingToDate</t>
-  </si>
-  <si>
     <t>extinct</t>
   </si>
   <si>
@@ -244,6 +220,42 @@
   </si>
   <si>
     <t>logo</t>
+  </si>
+  <si>
+    <t>originalNameId</t>
+  </si>
+  <si>
+    <t>uninomial</t>
+  </si>
+  <si>
+    <t>locality</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>altitude</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>collector</t>
+  </si>
+  <si>
+    <t>appendedNamePhrase</t>
+  </si>
+  <si>
+    <t>scrutinizerDate</t>
+  </si>
+  <si>
+    <t>scrutinizer</t>
   </si>
 </sst>
 </file>
@@ -605,7 +617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783139A7-2AD3-004C-8D2E-1BD255F6DEAE}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -617,86 +629,86 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -705,44 +717,49 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="9" width="37" customWidth="1"/>
+    <col min="1" max="9" width="35" customWidth="1"/>
     <col min="10" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="H1" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="I1" t="s">
-        <v>5</v>
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -756,42 +773,78 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="6" width="52" customWidth="1"/>
-    <col min="7" max="1025" width="11.5"/>
+    <col min="1" max="18" width="20.5" customWidth="1"/>
+    <col min="19" max="1022" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>63</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -800,6 +853,221 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="5" width="46.1640625" customWidth="1"/>
+    <col min="6" max="1025" width="11.5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F6BB32B-4EE1-E242-AD06-60BB0A8C9265}">
+  <dimension ref="A1:O1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:O1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K1" sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="15" width="25.1640625" customWidth="1"/>
+    <col min="16" max="1026" width="11.5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="5" width="30.6640625" customWidth="1"/>
+    <col min="6" max="1025" width="11.5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -818,16 +1086,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -840,137 +1108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:U1"/>
-  <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="21" width="20.5" customWidth="1"/>
-    <col min="22" max="1025" width="11.5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T1" t="s">
-        <v>27</v>
-      </c>
-      <c r="U1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="5" width="46.1640625" customWidth="1"/>
-    <col min="6" max="1025" width="11.5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -989,28 +1127,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1023,157 +1161,45 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:J1"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="9" width="35" customWidth="1"/>
-    <col min="10" max="1025" width="11.5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="5" width="30.6640625" customWidth="1"/>
-    <col min="6" max="1025" width="11.5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:N1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="14" width="25.1640625" customWidth="1"/>
-    <col min="15" max="1025" width="11.5"/>
+    <col min="1" max="9" width="37" customWidth="1"/>
+    <col min="10" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F1" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>47</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="I1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
